--- a/public/cohort/fileExcel/xlsxUIT/OPEN/PWS_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/PWS_OPEN.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -914,17 +914,20 @@
     <t>mavo?</t>
   </si>
   <si>
-    <t xml:space="preserve">Het schoolexamen mavo omvat het maken van een profielwerkstuk. Het onderwerp moet betrekking hebben op het profiel. Het profielwerkstuk wordt in duoâs of alleen gemaakt. Het onderwerp wordt door de leerlingen zelf aangeleverd. Alle leerlingen hebben een begeleider. </t>
+    <t xml:space="preserve">Het schoolexamen mavo omvat het maken van een profielwerkstuk. Het onderwerp moet betrekking hebben op het profiel. Het profielwerkstuk wordt in duo’s of alleen gemaakt. Het onderwerp wordt door de leerlingen zelf aangeleverd. Alle leerlingen hebben een begeleider. </t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t xml:space="preserve">Profielwerkstuk </t>
+    <t>Profielwerkstuk</t>
   </si>
   <si>
     <t xml:space="preserve">Beoordeling is gebaseerd op een schriftelijk verslag en een mondelinge presentatie. Cijfer van het profielwerkstuk is onderdeel van het combinatiecijfer. Het combinatiecijfer bestaat uit de vakken Maatschappijleer, CKV en het profielwerkstuk. 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profielwerkstuk </t>
   </si>
   <si>
     <t>A</t>
@@ -1979,7 +1982,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2125,7 +2128,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2479,7 +2482,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602395833</v>
+        <v>44385.633460648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3498,24 +3501,30 @@
       <c r="AE29" s="7"/>
     </row>
     <row r="30" spans="1:32" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>1119</v>
+      </c>
       <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
+      <c r="G30" s="27">
+        <v>2</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K30" s="30"/>
       <c r="L30" s="45"/>
       <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="46">
+        <v>1</v>
+      </c>
       <c r="O30" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P30" s="32"/>
       <c r="R30" s="7">
@@ -3572,11 +3581,11 @@
       </c>
       <c r="AE30" s="7">
         <f>IF(AND(ISBLANK($P30),$M30=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30" s="8">
         <f>SUM(R30:AE30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:32" customHeight="1" ht="72">
@@ -4008,7 +4017,9 @@
       <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="G38" s="48"/>
+      <c r="G38" s="48" t="s">
+        <v>75</v>
+      </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
@@ -4363,7 +4374,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4717,7 +4728,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602395833</v>
+        <v>44385.633460648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5744,7 +5755,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -6638,7 +6649,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -7138,7 +7149,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602395833</v>
+        <v>44385.633449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7502,24 +7513,30 @@
       <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="1:32" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1117</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>2</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="45"/>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="46">
+        <v>1</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -7576,11 +7593,11 @@
       </c>
       <c r="AE18" s="7">
         <f>IF(AND(ISBLANK($P18),$M18=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -9374,7 +9391,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602395833</v>
+        <v>44385.633449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11616,7 +11633,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602395833</v>
+        <v>44385.633449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -13352,7 +13369,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -13852,7 +13869,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602395833</v>
+        <v>44385.633460648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14216,24 +14233,30 @@
       <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="1:32" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1118</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>2</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="45"/>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="46">
+        <v>1</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14290,11 +14313,11 @@
       </c>
       <c r="AE18" s="7">
         <f>IF(AND(ISBLANK($P18),$M18=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -14756,7 +14779,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>75</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -16088,7 +16113,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602395833</v>
+        <v>44385.633460648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16460,7 +16485,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -17978,7 +18003,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -18332,7 +18357,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602395833</v>
+        <v>44385.633460648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -20216,7 +20241,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -20570,7 +20595,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602395833</v>
+        <v>44385.633460648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/PWS_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/PWS_OPEN.xlsx
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633460648</v>
+        <v>44387.766203704</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633460648</v>
+        <v>44387.766203704</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633449074</v>
+        <v>44387.766203704</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633449074</v>
+        <v>44387.766203704</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633449074</v>
+        <v>44387.766203704</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -13869,7 +13869,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633460648</v>
+        <v>44387.766203704</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16113,7 +16113,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633460648</v>
+        <v>44387.766203704</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -18357,7 +18357,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633460648</v>
+        <v>44387.766203704</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633460648</v>
+        <v>44387.766203704</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
